--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -69,7 +69,7 @@
     <t>OUI</t>
   </si>
   <si>
-    <t>Tempsdesuivi (Mois)</t>
+    <t>Tempsdesuivi</t>
   </si>
 </sst>
 </file>
@@ -321,6 +321,44 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -343,44 +381,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -716,10 +716,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="N1:N338" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="N1:N338" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="N1:N338"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Tempsdesuivi (Mois)" dataDxfId="1"/>
+    <tableColumn id="1" name="Tempsdesuivi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
